--- a/biology/Zoologie/Gekko_badenii/Gekko_badenii.xlsx
+++ b/biology/Zoologie/Gekko_badenii/Gekko_badenii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gekko badenii est une espèce de geckos de la famille des Gekkonidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Tây Ninh au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Tây Ninh au Viêt Nam.
 Sa présence est incertaine au Cambodge et au Laos.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko insectivore et arboricole de couleur gris-brun, avec une longue et fine queue.
 </t>
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko est sexuellement mature vers l'âge de un an. Les femelles sont un peu plus petites, et ne dépassent pas les 15 cm. Les mâles ont également les pores fémoraux nettement plus développés et bien visibles.
 La reproduction débute au début du retour des « beaux jours ». La femelle jeûne quelques jours avant les pontes. Les œufs sont déposés sur le sol, ou parfois collés sur une plante.
@@ -607,7 +625,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre cette espèce en terrariophilie.
 </t>
@@ -638,9 +658,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au mont Núi Bà Đen[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au mont Núi Bà Đen.
 </t>
         </is>
       </c>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Shcherbak &amp; Nekrasova, 1994 : A contribution to the knowledge of gekko lizards of southern Vietnam with description of a new species (Reptilia, Gekkonidae). Vestnik Zoologii, vol. 1994, n. 1, p. 48-52.</t>
         </is>
